--- a/takst.xlsx
+++ b/takst.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://prototechno-my.sharepoint.com/personal/kim_skatun_claraventurelabs_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alfalavalonline-my.sharepoint.com/personal/kska_framo_no/Documents/Documents/GitHub/klubben/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1003" documentId="8_{27ED9652-4214-478D-8414-7C1D427BFAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDDF2DB3-E527-414E-8D5D-E1AF053E923C}"/>
+  <xr:revisionPtr revIDLastSave="1174" documentId="8_{27ED9652-4214-478D-8414-7C1D427BFAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{399941B0-D973-43AE-A8E2-E3B09C6E56F5}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="42975" yWindow="3090" windowWidth="28800" windowHeight="15435" xr2:uid="{676DD67C-B22A-4BBB-BB05-D2C623CA92F0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{676DD67C-B22A-4BBB-BB05-D2C623CA92F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Verdivurdering" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Nettbank" sheetId="3" r:id="rId5"/>
     <sheet name="Arealer" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="168">
   <si>
     <t>tomt</t>
   </si>
@@ -491,6 +491,60 @@
   </si>
   <si>
     <t>|Description|NOK|</t>
+  </si>
+  <si>
+    <t>Bjørø Energi</t>
+  </si>
+  <si>
+    <t>Bogelist</t>
+  </si>
+  <si>
+    <t>Jysk</t>
+  </si>
+  <si>
+    <t>COOP</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Olav</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>bjørndal</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>eldirekte</t>
+  </si>
+  <si>
+    <t>28.05.20254</t>
+  </si>
+  <si>
+    <t>elektroimp</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Darek</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -927,7 +981,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -996,6 +1050,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1634,7 +1689,7 @@
                   <c:v>329513.73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>155352.95999999999</c:v>
+                  <c:v>432682.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>507400</c:v>
@@ -1916,7 +1971,7 @@
                   <c:v>329513.73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>155352.95999999999</c:v>
+                  <c:v>432682.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>507400</c:v>
@@ -2017,7 +2072,7 @@
                   <c:v>215736.87903225806</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120284.6451612903</c:v>
+                  <c:v>343937.87096774194</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>309193.54838709673</c:v>
@@ -4643,10 +4698,28 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{222ACFDC-633E-4F47-9039-C04489882202}" name="Table1" displayName="Table1" ref="A1:C157" totalsRowShown="0">
+  <autoFilter ref="A1:C157" xr:uid="{222ACFDC-633E-4F47-9039-C04489882202}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{06C9DBB6-E955-4CD1-9C67-DB7E70854436}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{21F92F34-D360-4A1A-B8D3-32EAA6125B14}" name="date"/>
+    <tableColumn id="3" xr3:uid="{B5918333-219A-492C-8EF3-D8C2F385449E}" name="SUM"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4684,7 +4757,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4790,7 +4863,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4932,7 +5005,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4943,7 +5016,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -5262,7 +5335,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5304,7 +5377,7 @@
         <v>82</v>
       </c>
       <c r="B2" s="48">
-        <f>Details!B49</f>
+        <f>Details!C66</f>
         <v>329513.73</v>
       </c>
       <c r="C2" s="34">
@@ -5323,7 +5396,7 @@
       </c>
       <c r="H2" t="str">
         <f>"|"&amp;A2&amp;"|"&amp;B2&amp;"|"</f>
-        <v>|Bad|329513.73|</v>
+        <v>|Bad|329513,73|</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -5331,26 +5404,26 @@
         <v>91</v>
       </c>
       <c r="B3" s="17">
-        <f>Details!B22</f>
-        <v>155352.95999999999</v>
+        <f>Details!C39</f>
+        <v>432682.96</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" si="0"/>
-        <v>125284.6451612903</v>
+        <v>348937.87096774194</v>
       </c>
       <c r="D3" s="8">
         <v>5000</v>
       </c>
       <c r="E3" s="9">
         <f t="shared" si="1"/>
-        <v>120284.6451612903</v>
+        <v>343937.87096774194</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>111</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H10" si="2">"|"&amp;A3&amp;"|"&amp;B3&amp;"|"</f>
-        <v>|Byggmateriell|155352.96|</v>
+        <v>|Byggmateriell|432682,96|</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5358,7 +5431,7 @@
         <v>80</v>
       </c>
       <c r="B4" s="17">
-        <f>Details!B10</f>
+        <f>Details!C10</f>
         <v>507400</v>
       </c>
       <c r="C4" s="9">
@@ -5385,7 +5458,7 @@
         <v>47</v>
       </c>
       <c r="B5" s="17">
-        <f>Details!B16</f>
+        <f>Details!C16</f>
         <v>123111</v>
       </c>
       <c r="C5" s="9">
@@ -5412,7 +5485,7 @@
         <v>92</v>
       </c>
       <c r="B6" s="17">
-        <f>Details!B77</f>
+        <f>Details!C94</f>
         <v>192193.5</v>
       </c>
       <c r="C6" s="9">
@@ -5431,7 +5504,7 @@
       </c>
       <c r="H6" t="str">
         <f t="shared" si="2"/>
-        <v>|Ute|192193.5|</v>
+        <v>|Ute|192193,5|</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5439,7 +5512,7 @@
         <v>132</v>
       </c>
       <c r="B7" s="17">
-        <f>Details!B62</f>
+        <f>Details!C79</f>
         <v>42317.3</v>
       </c>
       <c r="C7" s="9">
@@ -5458,7 +5531,7 @@
       </c>
       <c r="H7" t="str">
         <f t="shared" si="2"/>
-        <v>|Garasje|42317.3|</v>
+        <v>|Garasje|42317,3|</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5466,7 +5539,7 @@
         <v>103</v>
       </c>
       <c r="B8" s="17">
-        <f>Details!B55</f>
+        <f>Details!C72</f>
         <v>25000</v>
       </c>
       <c r="C8" s="9">
@@ -5491,7 +5564,7 @@
         <v>93</v>
       </c>
       <c r="B9" s="17">
-        <f>Details!B29</f>
+        <f>Details!C46</f>
         <v>95900</v>
       </c>
       <c r="C9" s="9">
@@ -5519,7 +5592,7 @@
         <v>81</v>
       </c>
       <c r="B10" s="39">
-        <f>Details!B35</f>
+        <f>Details!C52</f>
         <v>73233.7</v>
       </c>
       <c r="C10" s="40">
@@ -5538,7 +5611,7 @@
       </c>
       <c r="H10" t="str">
         <f t="shared" si="2"/>
-        <v>|Ventilasjon|73233.7|</v>
+        <v>|Ventilasjon|73233,7|</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -5600,701 +5673,715 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8E58B1-5863-4C03-A0E2-C74EBB4DA0C4}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A2:F79"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="64" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="60.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="64" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>60000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <f>24*5000</f>
         <v>120000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>50000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <f>1800*(22+31)</f>
         <v>95400</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <f>(90-4.5*8)*1000</f>
         <v>54000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <f>2000*59</f>
         <v>118000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <f>5*2000</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
-        <f>SUM(B3:B9)</f>
+      <c r="C10">
+        <f>SUM(C3:C9)</f>
         <v>507400</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <f>20525+7000</f>
         <v>27525</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <f>20525+13000</f>
         <v>33525</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>62061</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
-        <f>SUM(B13:B15)</f>
+      <c r="C16">
+        <f>SUM(C13:C15)</f>
         <v>123111</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>99</v>
       </c>
-      <c r="B19">
-        <f>Nettbank!C4+Nettbank!C9+Nettbank!C26-B15</f>
-        <v>103490.45999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f>Nettbank!C17+Nettbank!C28+Nettbank!C47-C15</f>
+        <v>248220.46000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
-      <c r="B20">
-        <f>Nettbank!C31*2</f>
-        <v>51862.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f>Nettbank!C57*2</f>
+        <v>184462.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
-      <c r="B21">
-        <f>Nettbank!C20</f>
-        <v>17530.559999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C21">
+        <f>Nettbank!C41</f>
+        <v>23530.559999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>29</v>
       </c>
-      <c r="B22">
-        <f>SUM(B19:B20)</f>
-        <v>155352.95999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="C39">
+        <f>SUM(C19:C20)</f>
+        <v>432682.96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B41" s="5"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>17</v>
       </c>
-      <c r="B25">
+      <c r="C42">
         <v>29000</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>18</v>
       </c>
-      <c r="B26">
+      <c r="C43">
         <v>54300</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>30</v>
       </c>
-      <c r="B27">
+      <c r="C44">
         <v>11000</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>49</v>
       </c>
-      <c r="B28">
+      <c r="C45">
         <v>1600</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>29</v>
       </c>
-      <c r="B29">
-        <f>SUM(B25:B28)</f>
+      <c r="C46">
+        <f>SUM(C42:C45)</f>
         <v>95900</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B48" s="5"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>19</v>
       </c>
-      <c r="B32">
+      <c r="C49">
         <v>41601</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="E49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>20</v>
       </c>
-      <c r="B33">
-        <f>Nettbank!C42</f>
+      <c r="C50">
+        <f>Nettbank!C69</f>
         <v>15882.7</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="E50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>30</v>
       </c>
-      <c r="B34">
+      <c r="C51">
         <f>18*875</f>
         <v>15750</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="E51" s="1"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>29</v>
       </c>
-      <c r="B35">
-        <f>SUM(B32:B34)</f>
+      <c r="C52">
+        <f>SUM(C49:C51)</f>
         <v>73233.7</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D52" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="E52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E53" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B54" s="5"/>
+      <c r="E54" s="1"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>21</v>
       </c>
-      <c r="B38">
+      <c r="C55">
         <f>13646+12390+8093</f>
         <v>34129</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D55" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="E55" s="1"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>22</v>
       </c>
-      <c r="B39">
+      <c r="C56">
         <v>25000</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D56" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="E56" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>23</v>
       </c>
-      <c r="B40">
+      <c r="C57">
         <f>1792+5788+9060+4494+3422+3068+354+5787</f>
         <v>33765</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D57" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="E57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>24</v>
       </c>
-      <c r="B41">
+      <c r="C58">
         <v>5000</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D58" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="E58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>25</v>
       </c>
-      <c r="B42">
+      <c r="C59">
         <v>32000</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D59" t="s">
         <v>126</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="E59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>26</v>
       </c>
-      <c r="B43">
+      <c r="C60">
         <v>10000</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D60" t="s">
         <v>127</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="E60" s="1"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>83</v>
       </c>
-      <c r="B44">
+      <c r="C61">
         <v>42882.229999999996</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D61" t="s">
         <v>60</v>
       </c>
-      <c r="D44" s="1"/>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="E61" s="1"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>27</v>
       </c>
-      <c r="B45">
+      <c r="C62">
         <f>32000/200*875</f>
         <v>140000</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D62" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="1"/>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="E62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>28</v>
       </c>
-      <c r="B46">
+      <c r="C63">
         <v>0</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D63" t="s">
         <v>56</v>
       </c>
-      <c r="D46" s="1"/>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="E63" s="1"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>76</v>
       </c>
-      <c r="B47">
+      <c r="C64">
         <v>6737.5</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D64" t="s">
         <v>128</v>
       </c>
-      <c r="D47" s="1"/>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="E64" s="1"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>129</v>
       </c>
-      <c r="B48">
+      <c r="C65">
         <v>0</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D65" t="s">
         <v>130</v>
       </c>
-      <c r="D48" s="1"/>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="E65" s="1"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>29</v>
       </c>
-      <c r="B49">
-        <f>SUM(B38:B48)</f>
+      <c r="C66">
+        <f>SUM(C55:C65)</f>
         <v>329513.73</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D66" t="s">
         <v>131</v>
       </c>
-      <c r="D49" s="1"/>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D50" s="1"/>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="E66" s="1"/>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E67" s="1"/>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D51" s="1"/>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B68" s="5"/>
+      <c r="E68" s="1"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>31</v>
       </c>
-      <c r="B52">
+      <c r="C69">
         <v>11000</v>
       </c>
-      <c r="D52" s="1"/>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="E69" s="1"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>65</v>
       </c>
-      <c r="B53">
+      <c r="C70">
         <v>6000</v>
       </c>
-      <c r="D53" s="1"/>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="E70" s="1"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>125</v>
       </c>
-      <c r="B54">
+      <c r="C71">
         <v>8000</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>29</v>
       </c>
-      <c r="B55">
-        <f>SUM(B52:B54)</f>
+      <c r="C72">
+        <f>SUM(C69:C71)</f>
         <v>25000</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="B74" s="5"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>34</v>
       </c>
-      <c r="B58">
+      <c r="C75">
         <v>20317.3</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>37</v>
       </c>
-      <c r="B59">
+      <c r="C76">
         <v>11000</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D76" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>35</v>
       </c>
-      <c r="B60">
+      <c r="C77">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>36</v>
       </c>
-      <c r="B61">
+      <c r="C78">
         <v>11000</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D78" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>29</v>
       </c>
-      <c r="B62">
-        <f>SUM(B58:B61)</f>
+      <c r="C79">
+        <f>SUM(C75:C78)</f>
         <v>42317.3</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C64" t="s">
+      <c r="B81" s="5"/>
+      <c r="D81" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>106</v>
       </c>
-      <c r="B65">
+      <c r="C82">
         <f>11614*4+5500</f>
         <v>51956</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D82" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>107</v>
       </c>
-      <c r="B66">
+      <c r="C83">
         <f>800*75</f>
         <v>60000</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D83" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>33</v>
       </c>
-      <c r="B67">
+      <c r="C84">
         <v>12000</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D84" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>38</v>
       </c>
-      <c r="B68">
+      <c r="C85">
         <v>0</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D85" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>40</v>
       </c>
-      <c r="B69">
+      <c r="C86">
         <v>0</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D86" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>39</v>
       </c>
-      <c r="B70">
+      <c r="C87">
         <v>0</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D87" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>44</v>
       </c>
-      <c r="B71">
+      <c r="C88">
         <v>0</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D88" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>41</v>
       </c>
-      <c r="B72">
+      <c r="C89">
         <v>15000</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D89" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>42</v>
       </c>
-      <c r="B73">
+      <c r="C90">
         <v>5000</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D90" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>43</v>
       </c>
-      <c r="B74">
+      <c r="C91">
         <f>30590*1.25</f>
         <v>38237.5</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D91" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>45</v>
       </c>
-      <c r="B75">
+      <c r="C92">
         <v>6000</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>46</v>
       </c>
-      <c r="B76">
+      <c r="C93">
         <v>4000</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>13</v>
       </c>
-      <c r="B77">
-        <f>SUM(B65:B76)</f>
+      <c r="C94">
+        <f>SUM(C82:C93)</f>
         <v>192193.5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>32</v>
       </c>
-      <c r="B79">
-        <f>SUMIF(A2:A79,"totalt",B2:B79)</f>
-        <v>1544022.19</v>
+      <c r="C96">
+        <f>SUMIF(A2:A96,"totalt",C2:C96)</f>
+        <v>1821352.19</v>
       </c>
     </row>
   </sheetData>
@@ -6308,8 +6395,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6392,310 +6479,918 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2FD874-D425-4F81-809A-8D8BD3D011CA}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="C118" sqref="C5:C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>70</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>16911</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C2">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3">
         <v>26060</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C3">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4">
         <v>10242</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="7">
-        <f>SUM(C1:C3)</f>
-        <v>53213</v>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="58">
+        <v>44948</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1333</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6">
-        <v>22157</v>
+        <v>70</v>
+      </c>
+      <c r="B6" s="58">
+        <v>44967</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1945</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7">
-        <v>14729</v>
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="58">
+        <v>44995</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1533</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <v>62061</v>
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="58">
+        <v>45026</v>
+      </c>
+      <c r="C8" s="4">
+        <v>5180</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="7">
-        <f>SUM(C6:C8)</f>
-        <v>98947</v>
+        <v>70</v>
+      </c>
+      <c r="B9" s="58">
+        <v>42939</v>
+      </c>
+      <c r="C9" s="4">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="58">
+        <v>45527</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1535</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11">
-        <v>4171</v>
+        <v>70</v>
+      </c>
+      <c r="B11" s="58">
+        <v>48083</v>
+      </c>
+      <c r="C11" s="4">
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <v>2766</v>
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="58">
+        <v>45025</v>
+      </c>
+      <c r="C12" s="4">
+        <v>678</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>8392.5</v>
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="58">
+        <v>45178</v>
+      </c>
+      <c r="C13" s="4">
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>27552.73</v>
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="58">
+        <v>45270</v>
+      </c>
+      <c r="C14" s="4">
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="58">
+        <v>45064</v>
+      </c>
+      <c r="C15" s="4">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="58">
+        <v>45052</v>
+      </c>
+      <c r="C16" s="4">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="7">
-        <f>SUM(C11:C14)</f>
+      <c r="C17" s="7">
+        <f>SUM(C2:C4)</f>
+        <v>53213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19">
+        <v>22157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20">
+        <v>14729</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21">
+        <v>62061</v>
+      </c>
+      <c r="E21" s="58"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="58">
+        <v>45058</v>
+      </c>
+      <c r="C22" s="4">
+        <v>82199</v>
+      </c>
+      <c r="E22" s="58"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="58">
+        <v>44931</v>
+      </c>
+      <c r="C23" s="4">
+        <v>26289</v>
+      </c>
+      <c r="E23" s="58"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="58">
+        <v>45128</v>
+      </c>
+      <c r="C24" s="4">
+        <v>30736</v>
+      </c>
+      <c r="E24" s="58"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="58">
+        <v>45058</v>
+      </c>
+      <c r="C25" s="4">
+        <v>5506</v>
+      </c>
+      <c r="E25" s="58"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="58"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="7">
+        <f>SUM(C19:C26)</f>
+        <v>243677</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30">
+        <v>4171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32">
+        <v>8392.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33">
+        <v>27552.73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="7">
+        <f>SUM(C30:C33)</f>
         <v>42882.229999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>73</v>
       </c>
-      <c r="C17">
+      <c r="C36">
         <v>4867</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C18">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C37">
         <v>1025</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C19">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C38">
         <v>11638.56</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="7">
-        <f>SUM(C17:C19)</f>
-        <v>17530.559999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C41" s="7">
+        <f>SUM(C36:C39)</f>
+        <v>23530.559999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>90</v>
       </c>
-      <c r="C22">
+      <c r="C43">
         <v>9132.9699999999993</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C23">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C44">
         <v>621.70000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C24">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C45">
         <v>3567.1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C25">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C46">
         <v>69.69</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="7">
-        <f>SUM(C22:C25)</f>
+      <c r="C47" s="7">
+        <f>SUM(C43:C46)</f>
         <v>13391.460000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>101</v>
       </c>
-      <c r="C28">
+      <c r="C49">
         <v>6806.25</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C29">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C50">
         <v>14025</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" s="58">
+        <v>44979</v>
+      </c>
+      <c r="C51" s="4">
+        <v>14950</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="58">
+        <v>45165</v>
+      </c>
+      <c r="C52" s="4">
+        <v>42900</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" s="58">
+        <v>45195</v>
+      </c>
+      <c r="C53" s="4">
+        <v>8450</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>102</v>
       </c>
-      <c r="C30">
+      <c r="C56">
         <f>8*510*1.25</f>
         <v>5100</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="7">
-        <f>SUM(C28:C30)</f>
-        <v>25931.25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="C57" s="7">
+        <f>SUM(C49:C56)</f>
+        <v>92231.25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>74</v>
       </c>
-      <c r="C33">
+      <c r="C59">
         <v>24358</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C34">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C60">
         <v>1560</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C35">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C61">
         <v>789</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C36">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C62">
         <v>1912</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>29</v>
       </c>
-      <c r="C37">
-        <f>SUM(C33:C36)</f>
+      <c r="C63">
+        <f>SUM(C59:C62)</f>
         <v>28619</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>75</v>
       </c>
-      <c r="C39">
+      <c r="C65">
         <v>10378.700000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C40">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C66">
         <v>1971</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C41">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C67">
         <v>3533</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="58">
+        <v>44972</v>
+      </c>
+      <c r="C68" s="4">
+        <v>20055.12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="7">
-        <f>SUM(C39:C41)</f>
+      <c r="C69" s="7">
+        <f>SUM(C65:C67)</f>
         <v>15882.7</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>77</v>
       </c>
-      <c r="C44">
+      <c r="C71">
         <v>12197.89</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C45">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C72">
         <v>17287.580000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C46">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C73">
         <v>1574.5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C47">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C74">
         <v>4714.28</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C48">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C75">
         <v>5299.81</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C49">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C76">
         <v>3655.65</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>160</v>
+      </c>
+      <c r="B77" t="s">
+        <v>161</v>
+      </c>
+      <c r="C77">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B78" s="58">
+        <v>45441</v>
+      </c>
+      <c r="C78">
+        <v>3688</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>162</v>
+      </c>
+      <c r="B79" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>157</v>
+      </c>
+      <c r="C80">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>163</v>
+      </c>
+      <c r="B82" s="58">
+        <v>44952</v>
+      </c>
+      <c r="C82">
+        <v>8986.98</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="58">
+        <v>45217</v>
+      </c>
+      <c r="C83">
+        <v>25600.43</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>29</v>
       </c>
-      <c r="C50">
-        <f>SUM(C44:C49)</f>
-        <v>44729.71</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="C85">
+        <f>SUM(C71:C83)</f>
+        <v>87627.12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>150</v>
+      </c>
+      <c r="B87" t="s">
+        <v>157</v>
+      </c>
+      <c r="C87">
+        <v>22847.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>157</v>
+      </c>
+      <c r="C88">
+        <v>201979.06</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>29</v>
+      </c>
+      <c r="C89">
+        <f>SUM(C87:C88)</f>
+        <v>224826.56</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>151</v>
+      </c>
+      <c r="B91" t="s">
+        <v>157</v>
+      </c>
+      <c r="C91">
+        <v>47898</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>157</v>
+      </c>
+      <c r="C92">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>29</v>
+      </c>
+      <c r="C93">
+        <f>SUM(C91:C92)</f>
+        <v>49812</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>79</v>
       </c>
-      <c r="C53">
+      <c r="C94">
         <v>4000</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B95" s="58">
+        <v>45343</v>
+      </c>
+      <c r="C95">
+        <v>12995</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>152</v>
+      </c>
+      <c r="B98" t="s">
+        <v>157</v>
+      </c>
+      <c r="C98">
+        <v>6000</v>
+      </c>
+      <c r="D98" t="s">
+        <v>159</v>
+      </c>
+      <c r="F98">
+        <f>C89+C93</f>
+        <v>274638.56</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>153</v>
+      </c>
+      <c r="B101" s="58">
+        <v>45407</v>
+      </c>
+      <c r="C101">
+        <v>916.9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="58">
+        <v>45041</v>
+      </c>
+      <c r="C102">
+        <v>3306.76</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="58">
+        <v>45395</v>
+      </c>
+      <c r="C103">
+        <v>714.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="58">
+        <v>45367</v>
+      </c>
+      <c r="C104">
+        <v>2427.64</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>13</v>
       </c>
-      <c r="C62">
-        <f>SUM(C1:C41)</f>
-        <v>576911.69999999995</v>
+      <c r="C105">
+        <f>SUM(C101:C104)</f>
+        <v>7365.7999999999993</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>158</v>
+      </c>
+      <c r="B108" s="58">
+        <v>44908</v>
+      </c>
+      <c r="C108">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="58">
+        <v>45006</v>
+      </c>
+      <c r="C109">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="58">
+        <v>45051</v>
+      </c>
+      <c r="C110">
+        <v>6250</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="58">
+        <v>45076</v>
+      </c>
+      <c r="C111">
+        <v>13750</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="58">
+        <v>45181</v>
+      </c>
+      <c r="C112">
+        <v>9212.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B113" s="58">
+        <v>45268</v>
+      </c>
+      <c r="C113">
+        <v>14437.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>29</v>
+      </c>
+      <c r="C114">
+        <f>SUM(C108:C113)</f>
+        <v>57650</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>166</v>
+      </c>
+      <c r="B118" t="s">
+        <v>165</v>
+      </c>
+      <c r="C118">
+        <f>160*50*12</f>
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C162" s="4">
+        <f>SUM(C5:C161)</f>
+        <v>1984915.4799999997</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
